--- a/Logs/14th Week TeamLogs.xlsx
+++ b/Logs/14th Week TeamLogs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0598A0F-AB8C-4C9A-8411-DB5E089FEDDF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0090E-B2E1-4F85-B961-A25D03E75C19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jegor" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -95,6 +94,12 @@
   </si>
   <si>
     <t>Lecture</t>
+  </si>
+  <si>
+    <t>Prog.</t>
+  </si>
+  <si>
+    <t>Praktikum</t>
   </si>
 </sst>
 </file>
@@ -192,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -526,11 +531,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -607,7 +636,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -617,8 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -634,6 +660,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -916,23 +950,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+    <col min="10" max="11" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
@@ -946,7 +979,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
@@ -958,7 +991,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="2:11" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="19.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="28" t="s">
         <v>10</v>
       </c>
@@ -978,7 +1011,7 @@
       <c r="J5" s="33"/>
       <c r="K5" s="34"/>
     </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -990,7 +1023,7 @@
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="2:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1020,24 +1053,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="65">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="64">
         <v>1</v>
       </c>
-      <c r="C8" s="66">
+      <c r="C8" s="65">
         <v>43584</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="66">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="66">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="11">
         <v>90</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="61" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="20" t="s">
@@ -1046,24 +1079,24 @@
       <c r="J8" s="7"/>
       <c r="K8" s="37"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="65">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="64">
         <v>2</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="62">
         <v>43587</v>
       </c>
-      <c r="D9" s="78">
+      <c r="D9" s="75">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="63">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F9" s="60"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="11">
         <v>80</v>
       </c>
-      <c r="H9" s="70" t="s">
+      <c r="H9" s="67" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="20" t="s">
@@ -1072,24 +1105,24 @@
       <c r="J9" s="4"/>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="65">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="64">
         <v>3</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="68">
         <v>43587</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="63">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="63">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="59"/>
       <c r="G10" s="11">
         <v>90</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="H10" s="67" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="20" t="s">
@@ -1098,24 +1131,24 @@
       <c r="J10" s="4"/>
       <c r="K10" s="38"/>
     </row>
-    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="65">
+    <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="64">
         <v>4</v>
       </c>
-      <c r="C11" s="63">
+      <c r="C11" s="62">
         <v>43588</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="63">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="63">
         <v>0.5</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="11">
         <v>240</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="61" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="20" t="s">
@@ -1124,41 +1157,41 @@
       <c r="J11" s="4"/>
       <c r="K11" s="38"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="63">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="64"/>
+      <c r="C12" s="62">
         <v>43589</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="63">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="63">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F12" s="62"/>
+      <c r="F12" s="61"/>
       <c r="G12" s="11">
         <v>180</v>
       </c>
-      <c r="H12" s="70" t="s">
+      <c r="H12" s="67" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="4"/>
       <c r="K12" s="38"/>
     </row>
-    <row r="13" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="62"/>
+    <row r="13" spans="2:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="64"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="61"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="62"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="20"/>
       <c r="J13" s="4"/>
       <c r="K13" s="38"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="42"/>
       <c r="C14" s="45"/>
       <c r="D14" s="41"/>
@@ -1170,7 +1203,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="38"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="45"/>
       <c r="D15" s="41"/>
@@ -1182,7 +1215,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="38"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="35"/>
       <c r="C16" s="5"/>
       <c r="D16" s="13"/>
@@ -1194,7 +1227,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="38"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="35"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1206,7 +1239,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1218,7 +1251,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="38"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="35"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1230,7 +1263,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="36"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1242,7 +1275,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="39"/>
     </row>
-    <row r="21" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1273,17 +1306,17 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
@@ -1297,7 +1330,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -1309,7 +1342,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
     </row>
-    <row r="6" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
@@ -1322,12 +1355,14 @@
       <c r="G6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="32">
+        <v>43584</v>
+      </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1339,11 +1374,11 @@
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
+    <row r="8" spans="2:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1369,79 +1404,169 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="20"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="71">
+        <v>1</v>
+      </c>
+      <c r="C9" s="72">
+        <v>43584</v>
+      </c>
+      <c r="D9" s="73">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="73">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F9" s="74"/>
+      <c r="G9" s="78">
+        <f>(E9-D9)*24*60 - F9</f>
+        <v>90</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="74" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="44"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="20"/>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="70">
+        <v>2</v>
+      </c>
+      <c r="C10" s="68">
+        <v>43585</v>
+      </c>
+      <c r="D10" s="69">
+        <v>0.625</v>
+      </c>
+      <c r="E10" s="69">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="79">
+        <f t="shared" ref="G10:G14" si="0">(E10-D10)*24*60 - F10</f>
+        <v>300.00000000000006</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="40"/>
       <c r="K10" s="43"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="20"/>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="70">
+        <v>3</v>
+      </c>
+      <c r="C11" s="68">
+        <v>43586</v>
+      </c>
+      <c r="D11" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="80">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="81">
+        <f t="shared" si="0"/>
+        <v>300.00000000000006</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="82" t="s">
+        <v>18</v>
+      </c>
       <c r="J11" s="40"/>
       <c r="K11" s="43"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="20"/>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="60">
+        <v>4</v>
+      </c>
+      <c r="C12" s="83">
+        <v>43587</v>
+      </c>
+      <c r="D12" s="84">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="80">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="81">
+        <f t="shared" si="0"/>
+        <v>300.00000000000006</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="82" t="s">
+        <v>18</v>
+      </c>
       <c r="J12" s="40"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="20"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="71">
+        <v>5</v>
+      </c>
+      <c r="C13" s="83">
+        <v>43588</v>
+      </c>
+      <c r="D13" s="84">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E13" s="69">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F13" s="67"/>
+      <c r="G13" s="79">
+        <f t="shared" si="0"/>
+        <v>270.00000000000011</v>
+      </c>
+      <c r="H13" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="67" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="43"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="20"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="70">
+        <v>6</v>
+      </c>
+      <c r="C14" s="83">
+        <v>43625</v>
+      </c>
+      <c r="D14" s="84">
+        <v>0.625</v>
+      </c>
+      <c r="E14" s="69">
+        <v>0.75</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="79">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="H14" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>18</v>
+      </c>
       <c r="J14" s="40"/>
       <c r="K14" s="43"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="45"/>
       <c r="D15" s="41"/>
@@ -1453,7 +1578,7 @@
       <c r="J15" s="40"/>
       <c r="K15" s="43"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
       <c r="C16" s="45"/>
       <c r="D16" s="41"/>
@@ -1465,7 +1590,7 @@
       <c r="J16" s="40"/>
       <c r="K16" s="43"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="45"/>
       <c r="D17" s="41"/>
@@ -1477,7 +1602,7 @@
       <c r="J17" s="40"/>
       <c r="K17" s="43"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="42"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -1489,7 +1614,7 @@
       <c r="J18" s="40"/>
       <c r="K18" s="43"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="42"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
@@ -1501,7 +1626,7 @@
       <c r="J19" s="40"/>
       <c r="K19" s="43"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="42"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -1513,7 +1638,7 @@
       <c r="J20" s="40"/>
       <c r="K20" s="43"/>
     </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="36"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -1525,7 +1650,7 @@
       <c r="J21" s="46"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1535,7 +1660,7 @@
       </c>
       <c r="G22" s="17">
         <f>SUM(G9:G21)</f>
-        <v>0</v>
+        <v>1440.0000000000005</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -1554,22 +1679,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32427AFA-22DC-4EF4-A25E-0E66666CECD2}">
   <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
@@ -1583,7 +1708,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -1595,7 +1720,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
     </row>
-    <row r="6" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
@@ -1608,12 +1733,14 @@
       <c r="G6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="32">
+        <v>43584</v>
+      </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1625,11 +1752,11 @@
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:11" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
+    <row r="8" spans="2:11" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1655,115 +1782,115 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="77"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="71"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="77"/>
+      <c r="H9" s="74"/>
       <c r="I9" s="19"/>
       <c r="J9" s="49"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="73"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="70"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="70"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="70"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="19"/>
       <c r="J10" s="51"/>
       <c r="K10" s="52"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="73"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="70"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="70"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="70"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="19"/>
       <c r="J11" s="47"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="73"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="70"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="70"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="67"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="70"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="19"/>
       <c r="J12" s="47"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="73"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="70"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="70"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="70"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="19"/>
       <c r="J13" s="47"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="73"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="70"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="70"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="67"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="70"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="19"/>
       <c r="J14" s="47"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="73"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="70"/>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="70"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="70"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="19"/>
       <c r="J15" s="47"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="73"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="70"/>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="70"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="70"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="19"/>
       <c r="J16" s="4"/>
       <c r="K16" s="38"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="73"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="70"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="70"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="70"/>
+      <c r="H17" s="67"/>
       <c r="I17" s="19"/>
       <c r="J17" s="4"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="35"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1775,7 +1902,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="38"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="35"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1787,7 +1914,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="38"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="35"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1799,7 +1926,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="38"/>
     </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="36"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1811,7 +1938,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="14"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1838,24 +1965,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F48D277-4C33-425C-A628-D76A08925D5B}">
-  <dimension ref="B3:K22"/>
+  <dimension ref="B3:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" customWidth="1"/>
-    <col min="9" max="9" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>11</v>
       </c>
@@ -1869,7 +1996,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
@@ -1881,7 +2008,7 @@
       <c r="J5" s="26"/>
       <c r="K5" s="27"/>
     </row>
-    <row r="6" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="28" t="s">
         <v>10</v>
       </c>
@@ -1894,12 +2021,14 @@
       <c r="G6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="32"/>
+      <c r="H6" s="32">
+        <v>43584</v>
+      </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
       <c r="K6" s="34"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1911,11 +2040,11 @@
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="79" t="s">
+    <row r="8" spans="2:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1941,178 +2070,181 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="62"/>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="70">
+        <v>1</v>
+      </c>
+      <c r="C9" s="85">
+        <v>43584</v>
+      </c>
+      <c r="D9" s="75">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="73">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F9" s="58"/>
+      <c r="G9" s="67">
+        <f t="shared" ref="G9:G11" si="0">(E9-D9)*24*60 - F9</f>
+        <v>90</v>
+      </c>
+      <c r="H9" s="67" t="s">
+        <v>19</v>
+      </c>
       <c r="I9" s="19"/>
       <c r="J9" s="57"/>
       <c r="K9" s="53"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="65"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="62"/>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="60">
+        <v>2</v>
+      </c>
+      <c r="C10" s="68">
+        <v>43587</v>
+      </c>
+      <c r="D10" s="75">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E10" s="69">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67">
+        <f t="shared" si="0"/>
+        <v>80.000000000000028</v>
+      </c>
+      <c r="H10" s="67" t="s">
+        <v>18</v>
+      </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="58"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="53"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="62"/>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="70">
+        <v>3</v>
+      </c>
+      <c r="C11" s="68">
+        <v>43587</v>
+      </c>
+      <c r="D11" s="69">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E11" s="69">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="G11" s="67">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>18</v>
+      </c>
       <c r="I11" s="19"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="62"/>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="56"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="59"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="62"/>
+      <c r="H12" s="53"/>
       <c r="I12" s="19"/>
       <c r="J12" s="53"/>
       <c r="K12" s="53"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="60"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="56"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="62"/>
+      <c r="H13" s="53"/>
       <c r="I13" s="19"/>
       <c r="J13" s="53"/>
       <c r="K13" s="53"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="62"/>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="56"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="62"/>
+      <c r="H14" s="53"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="60"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="53"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="19"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="53"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="35"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="35"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="53"/>
+      <c r="H17" s="4"/>
       <c r="I17" s="19"/>
       <c r="J17" s="4"/>
       <c r="K17" s="38"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="35"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="38"/>
-    </row>
-    <row r="21" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="36"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="39"/>
-    </row>
-    <row r="22" spans="2:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16" t="s">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="39"/>
+    </row>
+    <row r="19" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="17">
-        <f>SUM(G9:G21)</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="18"/>
+      <c r="G19" s="17">
+        <f>SUM(G9:G18)</f>
+        <v>260</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Logs/14th Week TeamLogs.xlsx
+++ b/Logs/14th Week TeamLogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE0090E-B2E1-4F85-B961-A25D03E75C19}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C88F546-8217-492F-80F5-83276891896D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -559,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -632,9 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
@@ -654,12 +651,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -668,6 +659,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1054,23 +1051,23 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="64">
+      <c r="B8" s="61">
         <v>1</v>
       </c>
-      <c r="C8" s="65">
+      <c r="C8" s="62">
         <v>43584</v>
       </c>
-      <c r="D8" s="66">
+      <c r="D8" s="63">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E8" s="66">
+      <c r="E8" s="63">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F8" s="58"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="11">
         <v>90</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="58" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="20" t="s">
@@ -1080,23 +1077,23 @@
       <c r="K8" s="37"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="64">
+      <c r="B9" s="61">
         <v>2</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="59">
         <v>43587</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="72">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="60">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F9" s="59"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="11">
         <v>80</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="64" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="20" t="s">
@@ -1106,23 +1103,23 @@
       <c r="K9" s="38"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="64">
+      <c r="B10" s="61">
         <v>3</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <v>43587</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="60">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="60">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F10" s="59"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="11">
         <v>90</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="64" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="20" t="s">
@@ -1132,23 +1129,23 @@
       <c r="K10" s="38"/>
     </row>
     <row r="11" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="64">
+      <c r="B11" s="61">
         <v>4</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="59">
         <v>43588</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="60">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="60">
         <v>0.5</v>
       </c>
-      <c r="F11" s="59"/>
+      <c r="F11" s="56"/>
       <c r="G11" s="11">
         <v>240</v>
       </c>
-      <c r="H11" s="61" t="s">
+      <c r="H11" s="58" t="s">
         <v>19</v>
       </c>
       <c r="I11" s="20" t="s">
@@ -1158,21 +1155,21 @@
       <c r="K11" s="38"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="64"/>
-      <c r="C12" s="62">
+      <c r="B12" s="61"/>
+      <c r="C12" s="59">
         <v>43589</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="60">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="60">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F12" s="61"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="11">
         <v>180</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="64" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="20"/>
@@ -1180,13 +1177,13 @@
       <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="61"/>
+      <c r="H13" s="58"/>
       <c r="I13" s="20"/>
       <c r="J13" s="4"/>
       <c r="K13" s="38"/>
@@ -1303,7 +1300,7 @@
   <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,10 +1372,10 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1405,162 +1402,162 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="71">
+      <c r="B9" s="68">
         <v>1</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="69">
         <v>43584</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="70">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="70">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F9" s="74"/>
-      <c r="G9" s="78">
+      <c r="F9" s="71"/>
+      <c r="G9" s="73">
         <f>(E9-D9)*24*60 - F9</f>
         <v>90</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="71" t="s">
         <v>21</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="44"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="70">
+      <c r="B10" s="67">
         <v>2</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <v>43585</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="66">
         <v>0.625</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="66">
         <v>0.83333333333333337</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="79">
+      <c r="F10" s="64"/>
+      <c r="G10" s="74">
         <f t="shared" ref="G10:G14" si="0">(E10-D10)*24*60 - F10</f>
         <v>300.00000000000006</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="71" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="70">
+      <c r="B11" s="67">
         <v>3</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="65">
         <v>43586</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="66">
         <v>0.75</v>
       </c>
-      <c r="E11" s="80">
+      <c r="E11" s="75">
         <v>0.95833333333333337</v>
       </c>
       <c r="F11" s="46"/>
-      <c r="G11" s="81">
+      <c r="G11" s="76">
         <f t="shared" si="0"/>
         <v>300.00000000000006</v>
       </c>
       <c r="H11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="77" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="40"/>
       <c r="K11" s="43"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60">
+      <c r="B12" s="57">
         <v>4</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="78">
         <v>43587</v>
       </c>
-      <c r="D12" s="84">
+      <c r="D12" s="79">
         <v>0.5</v>
       </c>
-      <c r="E12" s="80">
+      <c r="E12" s="75">
         <v>0.70833333333333337</v>
       </c>
       <c r="F12" s="46"/>
-      <c r="G12" s="81">
+      <c r="G12" s="76">
         <f t="shared" si="0"/>
         <v>300.00000000000006</v>
       </c>
       <c r="H12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="82" t="s">
+      <c r="I12" s="77" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="43"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="71">
+      <c r="B13" s="68">
         <v>5</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="78">
         <v>43588</v>
       </c>
-      <c r="D13" s="84">
+      <c r="D13" s="79">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="66">
         <v>0.52083333333333337</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="79">
+      <c r="F13" s="64"/>
+      <c r="G13" s="74">
         <f t="shared" si="0"/>
         <v>270.00000000000011</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="64" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="40"/>
       <c r="K13" s="43"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="70">
+      <c r="B14" s="67">
         <v>6</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="78">
         <v>43625</v>
       </c>
-      <c r="D14" s="84">
+      <c r="D14" s="79">
         <v>0.625</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="66">
         <v>0.75</v>
       </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="79">
+      <c r="F14" s="64"/>
+      <c r="G14" s="74">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="H14" s="67" t="s">
+      <c r="H14" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I14" s="64" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="40"/>
@@ -1680,7 +1677,7 @@
   <dimension ref="B3:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,10 +1750,10 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1782,110 +1779,185 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="19"/>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="68">
+        <v>1</v>
+      </c>
+      <c r="C9" s="69">
+        <v>43584</v>
+      </c>
+      <c r="D9" s="70">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9" s="70">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="F9" s="71"/>
+      <c r="G9" s="73">
+        <f>(E9-D9)*24*60 - F9</f>
+        <v>90</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="71" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="49"/>
       <c r="K9" s="50"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="70"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="19"/>
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="67">
+        <v>2</v>
+      </c>
+      <c r="C10" s="65">
+        <v>43585</v>
+      </c>
+      <c r="D10" s="66">
+        <v>0.625</v>
+      </c>
+      <c r="E10" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="74">
+        <f t="shared" ref="G10:G13" si="0">(E10-D10)*24*60 - F10</f>
+        <v>300.00000000000006</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>18</v>
+      </c>
       <c r="J10" s="51"/>
       <c r="K10" s="52"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="70"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="19"/>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="67">
+        <v>3</v>
+      </c>
+      <c r="C11" s="65">
+        <v>43586</v>
+      </c>
+      <c r="D11" s="66">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="75">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="76">
+        <f t="shared" si="0"/>
+        <v>300.00000000000006</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>18</v>
+      </c>
       <c r="J11" s="47"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="70"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="19"/>
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="57">
+        <v>4</v>
+      </c>
+      <c r="C12" s="78">
+        <v>43587</v>
+      </c>
+      <c r="D12" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="75">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="G12" s="76">
+        <f t="shared" si="0"/>
+        <v>300.00000000000006</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>18</v>
+      </c>
       <c r="J12" s="47"/>
       <c r="K12" s="48"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="70"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="19"/>
+      <c r="B13" s="68">
+        <v>5</v>
+      </c>
+      <c r="C13" s="78">
+        <v>43588</v>
+      </c>
+      <c r="D13" s="79">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E13" s="66">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="74">
+        <f t="shared" si="0"/>
+        <v>270.00000000000011</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>23</v>
+      </c>
       <c r="J13" s="47"/>
       <c r="K13" s="48"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="70"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="64"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="67"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="19"/>
       <c r="J14" s="47"/>
       <c r="K14" s="48"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="70"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="67"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="67"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="19"/>
       <c r="J15" s="47"/>
       <c r="K15" s="48"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="70"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="64"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="67"/>
+      <c r="H16" s="64"/>
       <c r="I16" s="19"/>
       <c r="J16" s="4"/>
       <c r="K16" s="38"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="70"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="67"/>
+      <c r="H17" s="64"/>
       <c r="I17" s="19"/>
       <c r="J17" s="4"/>
       <c r="K17" s="38"/>
@@ -1948,7 +2020,7 @@
       </c>
       <c r="G22" s="17">
         <f>SUM(G9:G21)</f>
-        <v>0</v>
+        <v>1260.0000000000005</v>
       </c>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -1965,10 +2037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F48D277-4C33-425C-A628-D76A08925D5B}">
-  <dimension ref="B3:K19"/>
+  <dimension ref="B3:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2041,10 +2113,10 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -2071,49 +2143,49 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="70">
+      <c r="B9" s="67">
         <v>1</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="80">
         <v>43584</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="72">
         <v>0.66666666666666663</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="70">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="67">
+      <c r="F9" s="55"/>
+      <c r="G9" s="64">
         <f t="shared" ref="G9:G11" si="0">(E9-D9)*24*60 - F9</f>
         <v>90</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="64" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="57"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="53"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="60">
+      <c r="B10" s="57">
         <v>2</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="65">
         <v>43587</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="72">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="66">
         <v>0.47222222222222227</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67">
+      <c r="F10" s="64"/>
+      <c r="G10" s="64">
         <f t="shared" si="0"/>
         <v>80.000000000000028</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="64" t="s">
         <v>18</v>
       </c>
       <c r="I10" s="19"/>
@@ -2121,130 +2193,92 @@
       <c r="K10" s="53"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="70">
+      <c r="B11" s="67">
         <v>3</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="65">
         <v>43587</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="66">
         <v>0.79166666666666663</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="66">
         <v>0.85416666666666663</v>
       </c>
-      <c r="F11" s="59"/>
-      <c r="G11" s="67">
+      <c r="F11" s="56"/>
+      <c r="G11" s="64">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H11" s="67" t="s">
-        <v>18</v>
-      </c>
+      <c r="H11" s="64"/>
       <c r="I11" s="19"/>
       <c r="J11" s="53"/>
       <c r="K11" s="53"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="53"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="38"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="53"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="53"/>
+      <c r="H14" s="4"/>
       <c r="I14" s="19"/>
       <c r="J14" s="4"/>
       <c r="K14" s="38"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="38"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="39"/>
-    </row>
-    <row r="19" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16" t="s">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="17">
-        <f>SUM(G9:G18)</f>
+      <c r="G16" s="17">
+        <f>SUM(G9:G15)</f>
         <v>260</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="18"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
